--- a/实施周数据-李登林组/1月/1周/实施周数据-李登林组-姚亚文.xlsx
+++ b/实施周数据-李登林组/1月/1周/实施周数据-李登林组-姚亚文.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zhangleizu\实施周数据-李登林组\12月\52周\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zhangleizu\实施周数据-李登林组\1月\1周\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1275,6 +1275,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,27 +1319,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1616,36 +1616,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="44" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1716,31 +1716,31 @@
       <c r="K4" s="30">
         <v>0</v>
       </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="24" t="s">
         <v>12</v>
       </c>
@@ -1752,12 +1752,12 @@
       <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="27">
         <v>24</v>
       </c>
@@ -1767,12 +1767,12 @@
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="27">
         <v>32</v>
       </c>
@@ -1782,12 +1782,12 @@
       <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="28">
         <v>11</v>
       </c>
@@ -1797,12 +1797,12 @@
       <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="27">
         <v>22</v>
       </c>
@@ -1812,10 +1812,10 @@
       <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
     </row>
@@ -1823,10 +1823,10 @@
       <c r="A12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
     </row>
@@ -1834,10 +1834,10 @@
       <c r="A13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
     </row>
@@ -1845,10 +1845,10 @@
       <c r="A14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
     </row>
@@ -1856,10 +1856,10 @@
       <c r="A15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="K15" s="17" t="s">
@@ -1870,10 +1870,10 @@
       <c r="A16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
     </row>
@@ -1881,10 +1881,10 @@
       <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
     </row>
@@ -1892,15 +1892,25 @@
       <c r="A18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -1909,16 +1919,6 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1932,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4653,62 +4653,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="5">
-        <v>52</v>
-      </c>
-      <c r="C56" s="9">
-        <v>43098</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G56" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H56" s="1">
-        <v>76079097</v>
-      </c>
-      <c r="I56" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="J56" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="K56" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="L56" s="4">
-        <v>17771797122</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O56" s="1">
-        <v>18262061835</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="5">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C57" s="9">
         <v>43098</v>
@@ -4726,10 +4676,10 @@
         <v>38</v>
       </c>
       <c r="H57" s="1">
-        <v>76096633</v>
+        <v>76079097</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J57" s="31" t="s">
         <v>38</v>
@@ -4741,13 +4691,13 @@
         <v>17771797122</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>161</v>
       </c>
       <c r="O57" s="1">
-        <v>18321638731</v>
+        <v>18262061835</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>162</v>
@@ -4758,7 +4708,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="5">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C58" s="9">
         <v>43098</v>
@@ -4776,10 +4726,10 @@
         <v>38</v>
       </c>
       <c r="H58" s="1">
-        <v>76112055</v>
+        <v>76096633</v>
       </c>
       <c r="I58" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J58" s="31" t="s">
         <v>38</v>
@@ -4791,13 +4741,13 @@
         <v>17771797122</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>161</v>
       </c>
       <c r="O58" s="1">
-        <v>13636549287</v>
+        <v>18321638731</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>162</v>
@@ -4808,7 +4758,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="5">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C59" s="9">
         <v>43098</v>
@@ -4826,10 +4776,10 @@
         <v>38</v>
       </c>
       <c r="H59" s="1">
-        <v>76115506</v>
+        <v>76112055</v>
       </c>
       <c r="I59" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J59" s="31" t="s">
         <v>38</v>
@@ -4841,13 +4791,13 @@
         <v>17771797122</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>161</v>
       </c>
       <c r="O59" s="1">
-        <v>13601852135</v>
+        <v>13636549287</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>162</v>
@@ -4858,7 +4808,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="5">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C60" s="9">
         <v>43098</v>
@@ -4876,10 +4826,10 @@
         <v>38</v>
       </c>
       <c r="H60" s="1">
-        <v>76118929</v>
+        <v>76115506</v>
       </c>
       <c r="I60" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J60" s="31" t="s">
         <v>38</v>
@@ -4891,20 +4841,67 @@
         <v>17771797122</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>161</v>
       </c>
       <c r="O60" s="1">
-        <v>13918544278</v>
+        <v>13601852135</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G61" s="33"/>
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61" s="9">
+        <v>43098</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" s="1">
+        <v>76118929</v>
+      </c>
+      <c r="I61" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="J61" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L61" s="4">
+        <v>17771797122</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O61" s="1">
+        <v>13918544278</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G62" s="33"/>
@@ -5294,13 +5291,13 @@
   <autoFilter ref="A1:Q44"/>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A19 A21:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A19 A21:A55 A57:A1048576">
       <formula1>"北京直客,北京大客户,北京饮食通,上海,成都,济南,南京,重庆,杭州,武汉,长沙,深圳,西安,代理"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C19 C21:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C19 C21:C55 C57:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D19 D21:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D19 D21:D55 D57:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
